--- a/Jogos_da_Semana_FlashScore_2024-12-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-03.xlsx
@@ -1651,91 +1651,91 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.25</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
       <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1744,10 +1744,10 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1756,43 +1756,43 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
         <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1859,10 +1859,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1871,67 +1871,67 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1943,22 +1943,22 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
         <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -1967,10 +1967,10 @@
         <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-03.xlsx
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1681,10 +1681,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1693,19 +1693,19 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
@@ -1717,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1729,10 +1729,10 @@
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1762,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1786,10 +1786,10 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>
